--- a/BackTest/2019-10-28 BackTest FNB.xlsx
+++ b/BackTest/2019-10-28 BackTest FNB.xlsx
@@ -8501,20 +8501,14 @@
         <v>17.66666666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8542,20 +8536,14 @@
         <v>17.73333333333334</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8583,20 +8571,14 @@
         <v>17.8</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8624,20 +8606,14 @@
         <v>17.86666666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8665,20 +8641,14 @@
         <v>17.93333333333334</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8706,20 +8676,14 @@
         <v>18</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>18</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8747,20 +8711,14 @@
         <v>18.1</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8788,20 +8746,14 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8829,20 +8781,14 @@
         <v>18.16666666666666</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>18</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8877,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9033,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9072,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9111,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9150,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9189,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9306,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9696,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9774,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9813,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9852,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9891,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9930,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9969,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10242,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10281,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10320,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10359,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10437,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10476,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10554,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10593,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10632,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10671,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10710,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10749,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10788,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10827,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10905,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10944,11 +10678,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10713,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11022,11 +10748,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11061,11 +10783,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11100,11 +10818,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11139,11 +10853,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +10888,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11217,11 +10923,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11256,11 +10958,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +10993,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11334,11 +11028,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11373,11 +11063,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11412,11 +11098,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11451,11 +11133,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +11168,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +11203,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11568,11 +11238,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +11273,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11646,11 +11308,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11685,11 +11343,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11724,11 +11378,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11763,11 +11413,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11802,11 +11448,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11841,11 +11483,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11880,11 +11518,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +11553,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11588,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11997,11 +11623,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12036,11 +11658,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12075,11 +11693,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12114,11 +11728,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +11763,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12192,11 +11798,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12231,11 +11833,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12270,11 +11868,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12309,11 +11903,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12348,11 +11938,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12387,11 +11973,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +12008,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12465,11 +12043,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12504,11 +12078,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12543,11 +12113,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +12148,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12621,11 +12183,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +12218,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12699,11 +12253,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12738,11 +12288,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12777,11 +12323,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12816,11 +12358,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12855,11 +12393,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12887,20 +12421,14 @@
         <v>17.69999999999999</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12928,20 +12456,14 @@
         <v>17.76666666666666</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12969,20 +12491,14 @@
         <v>17.79999999999999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13010,20 +12526,14 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13051,20 +12561,14 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13092,20 +12596,14 @@
         <v>17.89999999999998</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13133,20 +12631,14 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13174,20 +12666,14 @@
         <v>17.69999999999998</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13215,20 +12701,14 @@
         <v>17.53333333333331</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13256,20 +12736,14 @@
         <v>17.43333333333331</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13297,20 +12771,14 @@
         <v>17.53333333333331</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13338,20 +12806,14 @@
         <v>17.59999999999998</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13379,20 +12841,14 @@
         <v>17.66666666666665</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13420,20 +12876,14 @@
         <v>17.66666666666665</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13461,20 +12911,14 @@
         <v>17.69999999999998</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13502,20 +12946,14 @@
         <v>17.69999999999998</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13543,20 +12981,14 @@
         <v>17.73333333333331</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13584,20 +13016,14 @@
         <v>17.73333333333331</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13625,20 +13051,14 @@
         <v>17.79999999999998</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13666,20 +13086,14 @@
         <v>17.83333333333331</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13707,20 +13121,14 @@
         <v>17.89999999999997</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13748,20 +13156,14 @@
         <v>17.93333333333331</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>18</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13789,20 +13191,14 @@
         <v>17.96666666666664</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>18</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13830,20 +13226,14 @@
         <v>17.99999999999998</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>18</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13871,20 +13261,14 @@
         <v>17.99999999999997</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>18</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13912,20 +13296,14 @@
         <v>17.99999999999997</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>18</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13953,20 +13331,14 @@
         <v>18.0333333333333</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>18</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13994,20 +13366,14 @@
         <v>18.06666666666663</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>18</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14035,20 +13401,14 @@
         <v>18.06666666666663</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>18</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14076,20 +13436,14 @@
         <v>18.0333333333333</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>18</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14117,20 +13471,14 @@
         <v>17.99999999999997</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>18</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14158,20 +13506,14 @@
         <v>17.96666666666664</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>18</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14199,20 +13541,14 @@
         <v>17.9333333333333</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14240,20 +13576,14 @@
         <v>17.9333333333333</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>18</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14281,20 +13611,14 @@
         <v>17.96666666666663</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>18</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14322,20 +13646,14 @@
         <v>17.96666666666663</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14363,20 +13681,14 @@
         <v>17.96666666666663</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>18</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14404,20 +13716,14 @@
         <v>17.96666666666663</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>18</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14445,20 +13751,14 @@
         <v>17.96666666666663</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14486,20 +13786,14 @@
         <v>17.9333333333333</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14527,20 +13821,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14568,20 +13856,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14609,20 +13891,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14650,20 +13926,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14691,20 +13961,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14732,20 +13996,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14773,20 +14031,14 @@
         <v>17.79999999999997</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14814,20 +14066,14 @@
         <v>17.7333333333333</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14855,20 +14101,14 @@
         <v>17.66666666666664</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14896,20 +14136,14 @@
         <v>17.66666666666664</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14937,20 +14171,14 @@
         <v>17.69999999999997</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14978,20 +14206,14 @@
         <v>17.7333333333333</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15019,20 +14241,14 @@
         <v>17.79999999999997</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15060,20 +14276,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15101,20 +14311,14 @@
         <v>17.89999999999996</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15142,20 +14346,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15183,20 +14381,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15224,20 +14416,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15265,20 +14451,14 @@
         <v>17.89999999999996</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>18</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15306,20 +14486,14 @@
         <v>17.9333333333333</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>18</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15347,20 +14521,14 @@
         <v>17.9333333333333</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15388,20 +14556,14 @@
         <v>17.89999999999997</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15429,20 +14591,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15470,20 +14626,14 @@
         <v>17.86666666666663</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15511,20 +14661,14 @@
         <v>17.89999999999996</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15552,20 +14696,14 @@
         <v>17.8333333333333</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15593,20 +14731,14 @@
         <v>17.76666666666663</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15634,20 +14766,14 @@
         <v>17.69999999999996</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15675,20 +14801,14 @@
         <v>17.66666666666663</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15716,20 +14836,14 @@
         <v>17.63333333333329</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15757,20 +14871,14 @@
         <v>17.79999999999996</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15798,20 +14906,14 @@
         <v>17.86666666666662</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15839,20 +14941,14 @@
         <v>17.93333333333329</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>18</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15880,20 +14976,14 @@
         <v>17.86666666666662</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>18</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15921,20 +15011,14 @@
         <v>17.89999999999995</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15962,20 +15046,14 @@
         <v>17.93333333333328</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16003,20 +15081,14 @@
         <v>17.89999999999995</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16044,20 +15116,14 @@
         <v>17.86666666666661</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16085,20 +15151,14 @@
         <v>17.86666666666661</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16126,20 +15186,14 @@
         <v>17.86666666666661</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16167,20 +15221,14 @@
         <v>17.86666666666662</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16208,20 +15256,14 @@
         <v>17.79999999999995</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16249,20 +15291,14 @@
         <v>17.73333333333328</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16290,20 +15326,14 @@
         <v>17.69999999999995</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16331,20 +15361,14 @@
         <v>17.69999999999995</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16372,20 +15396,14 @@
         <v>17.69999999999995</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16413,20 +15431,14 @@
         <v>17.63333333333328</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16454,20 +15466,14 @@
         <v>17.56666666666662</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16495,20 +15501,14 @@
         <v>17.49999999999995</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16536,20 +15536,14 @@
         <v>17.53333333333329</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16577,20 +15571,14 @@
         <v>17.59999999999995</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16618,20 +15606,14 @@
         <v>17.66666666666662</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16659,20 +15641,14 @@
         <v>17.73333333333328</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16700,20 +15676,14 @@
         <v>17.83333333333328</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16741,20 +15711,14 @@
         <v>17.93333333333328</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>18</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16782,20 +15746,14 @@
         <v>17.99999999999995</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>18</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16823,20 +15781,14 @@
         <v>18.03333333333329</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16864,20 +15816,14 @@
         <v>18.06666666666662</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16905,20 +15851,14 @@
         <v>18.13333333333328</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16946,20 +15886,14 @@
         <v>18.16666666666662</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16987,20 +15921,14 @@
         <v>18.09999999999995</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17028,20 +15956,14 @@
         <v>18.03333333333328</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17069,20 +15991,14 @@
         <v>17.96666666666661</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>18</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17110,20 +16026,14 @@
         <v>17.93333333333328</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17151,20 +16061,14 @@
         <v>17.93333333333328</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17192,20 +16096,14 @@
         <v>17.96666666666661</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17233,20 +16131,14 @@
         <v>18.03333333333328</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>18</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17274,20 +16166,14 @@
         <v>18.03333333333328</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>18</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17315,20 +16201,14 @@
         <v>17.99999999999995</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17356,20 +16236,14 @@
         <v>18.03333333333328</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17397,20 +16271,14 @@
         <v>18.06666666666662</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17438,20 +16306,14 @@
         <v>18.06666666666662</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>18</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17486,11 +16348,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17518,20 +16376,14 @@
         <v>17.99999999999995</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>18</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17566,11 +16418,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17598,20 +16446,14 @@
         <v>17.96666666666661</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17639,20 +16481,14 @@
         <v>18.03333333333328</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17680,20 +16516,14 @@
         <v>18.13333333333328</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17728,11 +16558,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17767,11 +16593,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17806,11 +16628,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17845,11 +16663,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17884,11 +16698,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17923,11 +16733,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17962,11 +16768,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +16803,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +16838,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18079,11 +16873,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18118,11 +16908,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18157,11 +16943,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +16978,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18235,11 +17013,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18267,20 +17041,14 @@
         <v>17.86666666666661</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18315,11 +17083,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18347,20 +17111,14 @@
         <v>17.89999999999995</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>18</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18388,20 +17146,14 @@
         <v>17.93333333333328</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>18</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18429,20 +17181,14 @@
         <v>18.03333333333329</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18470,20 +17216,14 @@
         <v>18.13333333333328</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18518,11 +17258,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18557,11 +17293,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18596,11 +17328,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18635,11 +17363,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18674,11 +17398,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18713,11 +17433,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18752,11 +17468,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +17503,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18830,11 +17538,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18869,11 +17573,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18908,11 +17608,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18947,11 +17643,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18986,11 +17678,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19025,11 +17713,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19064,11 +17748,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19103,11 +17783,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19142,11 +17818,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19181,11 +17853,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19220,11 +17888,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19255,15 +17919,11 @@
         <v>0</v>
       </c>
       <c r="I501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19298,11 +17958,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19337,11 +17993,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19376,11 +18028,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19411,15 +18059,11 @@
         <v>0</v>
       </c>
       <c r="I505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19454,11 +18098,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +18133,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19532,11 +18168,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19567,15 +18199,11 @@
         <v>0</v>
       </c>
       <c r="I509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19610,11 +18238,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19649,11 +18273,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19688,11 +18308,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19727,11 +18343,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19762,15 +18374,11 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19801,15 +18409,11 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19840,15 +18444,11 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19879,15 +18479,11 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19922,11 +18518,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19961,11 +18553,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20000,11 +18588,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20039,11 +18623,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20078,11 +18658,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20117,11 +18693,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20156,11 +18728,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20195,11 +18763,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20234,11 +18798,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20269,16 +18829,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -20306,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
@@ -20341,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
@@ -20376,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
@@ -20411,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
@@ -20446,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
@@ -20481,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
@@ -20516,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
@@ -20551,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
@@ -20586,7 +19144,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
@@ -20621,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
@@ -20656,7 +19214,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
@@ -20691,7 +19249,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
@@ -20726,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
@@ -20761,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
@@ -20796,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
@@ -20831,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
@@ -20866,7 +19424,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
@@ -21146,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
@@ -21216,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
@@ -26358,14 +24916,20 @@
         <v>17.99999999999998</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>18</v>
+      </c>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26393,14 +24957,20 @@
         <v>17.99999999999998</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>18</v>
+      </c>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26428,14 +24998,20 @@
         <v>17.99999999999998</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>18</v>
+      </c>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26463,14 +25039,20 @@
         <v>18.03333333333331</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>18</v>
+      </c>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26498,14 +25080,20 @@
         <v>18.13333333333331</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>18.1</v>
+      </c>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26533,14 +25121,20 @@
         <v>18.23333333333331</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>18.3</v>
+      </c>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26568,14 +25162,20 @@
         <v>18.29999999999998</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>18.3</v>
+      </c>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26603,14 +25203,20 @@
         <v>18.19999999999997</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>18.3</v>
+      </c>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26638,14 +25244,20 @@
         <v>18.16666666666664</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>18</v>
+      </c>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26673,14 +25285,20 @@
         <v>18.13333333333331</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>18.2</v>
+      </c>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26715,7 +25333,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26750,7 +25372,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26785,7 +25411,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26820,7 +25450,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +25489,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26890,7 +25528,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26925,7 +25567,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26960,7 +25606,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26995,7 +25645,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27030,7 +25684,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27065,7 +25723,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27100,7 +25762,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27135,7 +25801,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27170,7 +25840,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27205,7 +25879,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27240,7 +25918,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27275,7 +25957,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27310,7 +25996,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27345,7 +26035,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27380,7 +26074,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27408,18 +26106,16 @@
         <v>17.83333333333331</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M731" t="n">
@@ -27449,14 +26145,12 @@
         <v>17.83333333333331</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
@@ -27490,14 +26184,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
@@ -27531,14 +26223,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
@@ -27572,14 +26262,12 @@
         <v>17.89999999999998</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
@@ -27613,14 +26301,12 @@
         <v>17.89999999999998</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
@@ -27654,14 +26340,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>
@@ -27695,14 +26379,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr">
         <is>
@@ -27736,14 +26418,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr">
         <is>
@@ -27777,14 +26457,12 @@
         <v>17.89999999999998</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr">
         <is>
@@ -27818,14 +26496,12 @@
         <v>17.86666666666665</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
@@ -27859,14 +26535,12 @@
         <v>17.83333333333332</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
@@ -27900,14 +26574,12 @@
         <v>17.79999999999999</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>
@@ -27941,14 +26613,12 @@
         <v>17.83333333333332</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
@@ -27982,14 +26652,12 @@
         <v>17.89999999999999</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
@@ -28023,14 +26691,12 @@
         <v>17.96666666666665</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
@@ -28064,14 +26730,12 @@
         <v>18.03333333333332</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>18</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
@@ -28105,14 +26769,12 @@
         <v>18.03333333333332</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>18</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
@@ -28146,14 +26808,12 @@
         <v>18.06666666666665</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
@@ -28187,14 +26847,12 @@
         <v>18.16666666666665</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
@@ -28228,14 +26886,12 @@
         <v>18.26666666666666</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
@@ -29166,14 +27822,12 @@
         <v>17.96666666666665</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
@@ -29831,14 +28485,12 @@
         <v>17.96666666666666</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>

--- a/BackTest/2019-10-28 BackTest FNB.xlsx
+++ b/BackTest/2019-10-28 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2315300.975832134</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1682054.319132133</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-626097.0530888154</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2118738.428188816</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3051640.790114742</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2714790.870414742</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2954869.949557599</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6414102.335974104</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5936015.760674104</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6527344.919751882</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9573722.775751881</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9143136.715951882</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9992099.917751884</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-10794639.68145188</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-11086496.69625188</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-11618850.06485188</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-13264734.48745188</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18891567.95815188</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-20056314.19845188</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-22769610.94115188</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-21472857.47885188</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-24366603.73395189</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-22625394.80755189</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-21169352.58849622</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-18509453.71596657</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-17780698.95986658</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19248446.09996657</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-19618600.83456657</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -9823,17 +9823,11 @@
         <v>-40188142.98133957</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10010,17 +9988,11 @@
         <v>-40833768.92417286</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10049,17 +10021,11 @@
         <v>-40572702.53667286</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10088,17 +10054,11 @@
         <v>-40384993.29127286</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10127,17 +10087,11 @@
         <v>-40384993.29127286</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10166,17 +10120,11 @@
         <v>-40168842.06687286</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10205,17 +10153,11 @@
         <v>-39886368.50113953</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10248,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10322,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10359,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10396,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10433,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10470,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10507,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10544,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10618,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10655,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10692,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10729,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10766,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10803,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10840,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10877,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10914,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10951,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10988,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11025,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11062,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11099,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11136,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11173,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11210,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11247,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11284,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11321,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11358,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11395,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11432,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11469,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11543,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11580,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11617,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11654,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11691,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11761,17 +11539,11 @@
         <v>-39817689.33865492</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11804,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11841,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11878,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11915,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11989,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12063,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12211,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12248,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12470,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12544,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12581,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12692,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12840,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12914,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12951,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12988,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13062,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13099,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13173,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13210,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13247,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13284,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13432,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13469,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13543,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13580,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13654,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13691,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13728,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13765,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13802,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13839,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13876,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13913,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13950,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13987,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14020,17 +13552,11 @@
         <v>-41169062.64708131</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14096,17 +13618,11 @@
         <v>-41599001.91106008</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14135,17 +13651,11 @@
         <v>-41599001.91106008</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14174,17 +13684,11 @@
         <v>-41599001.91106008</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14213,17 +13717,11 @@
         <v>-41571787.72116008</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14252,17 +13750,11 @@
         <v>-41806289.55126008</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14291,17 +13783,11 @@
         <v>-41574078.86896008</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14330,17 +13816,11 @@
         <v>-41574078.86896008</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14369,17 +13849,11 @@
         <v>-41574078.86896008</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14408,17 +13882,11 @@
         <v>-41655606.93796007</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14447,17 +13915,11 @@
         <v>-42306939.35916007</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14486,17 +13948,11 @@
         <v>-42306939.35916007</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14525,17 +13981,11 @@
         <v>-42179091.56146007</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14564,17 +14014,11 @@
         <v>-42040658.57016007</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14608,12 +14052,10 @@
       <c r="I414" t="n">
         <v>17.7</v>
       </c>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14647,10 +14089,12 @@
       <c r="I415" t="n">
         <v>17.6</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L415" t="n">
@@ -14681,12 +14125,12 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
         <v>17.7</v>
       </c>
-      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,12 +14164,12 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
         <v>17.7</v>
       </c>
-      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,12 +14203,12 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
         <v>17.7</v>
       </c>
-      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,7 +14247,9 @@
       <c r="I419" t="n">
         <v>17.7</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,12 +14283,12 @@
         <v>-42032045.70256007</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J420" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14876,12 +14322,12 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="n">
         <v>17.7</v>
       </c>
-      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,12 +14361,12 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14954,12 +14400,12 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14993,12 +14439,12 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,12 +14478,12 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>18</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,12 +14517,12 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>18</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,12 +14556,12 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>18</v>
-      </c>
-      <c r="J427" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,12 +14595,12 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>18</v>
-      </c>
-      <c r="J428" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,12 +14634,12 @@
         <v>-41984876.60623784</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>18</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,12 +14673,12 @@
         <v>-41984876.60623784</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,12 +14712,12 @@
         <v>-41985948.57923784</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,12 +14751,12 @@
         <v>-41985948.57923784</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>18</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,12 +14790,12 @@
         <v>-41985948.57923784</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>18</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,12 +14829,12 @@
         <v>-42032717.58623784</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>18</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,12 +14868,12 @@
         <v>-42032717.58623784</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,12 +14907,12 @@
         <v>-42031448.71403784</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,12 +14946,12 @@
         <v>-42031448.71403784</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>18</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,12 +14985,12 @@
         <v>-42045608.10733784</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>18</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15578,12 +15024,12 @@
         <v>-42039068.76023784</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,12 +15063,12 @@
         <v>-42039068.76023784</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>18</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15656,12 +15102,12 @@
         <v>-42069068.76023784</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>18</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15695,12 +15141,12 @@
         <v>-42069068.76023784</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15734,12 +15180,12 @@
         <v>-42102796.23363784</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,12 +15219,12 @@
         <v>-42101751.98783784</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15812,12 +15258,12 @@
         <v>-42145797.22033784</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15851,12 +15297,12 @@
         <v>-42145797.22033784</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,12 +15336,12 @@
         <v>-42141997.72313784</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15929,12 +15375,12 @@
         <v>-42171557.20773784</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15968,12 +15414,12 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16007,12 +15453,12 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
         <v>17.7</v>
       </c>
-      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,12 +15492,12 @@
         <v>-42275503.00683784</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
         <v>17.7</v>
       </c>
-      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16085,12 +15531,12 @@
         <v>-42161769.74563783</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16124,12 +15570,12 @@
         <v>-42144790.57793783</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
         <v>17.7</v>
       </c>
-      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16163,12 +15609,12 @@
         <v>-42169829.05483783</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,12 +15648,12 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="n">
         <v>17.7</v>
       </c>
-      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16241,12 +15687,12 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16280,12 +15726,12 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16319,12 +15765,12 @@
         <v>-42170095.26753783</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16358,12 +15804,12 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16397,12 +15843,12 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16436,12 +15882,12 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16475,12 +15921,12 @@
         <v>-42159783.48976006</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16514,12 +15960,12 @@
         <v>-42335726.80366006</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>18</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16553,12 +15999,12 @@
         <v>-42336403.42566006</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16592,12 +16038,12 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16631,12 +16077,12 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16670,12 +16116,12 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16709,12 +16155,12 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16748,12 +16194,12 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
         <v>17.7</v>
       </c>
-      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16787,12 +16233,12 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
         <v>17.7</v>
       </c>
-      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16831,7 +16277,9 @@
       <c r="I471" t="n">
         <v>17.7</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16870,7 +16318,9 @@
       <c r="I472" t="n">
         <v>17.6</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16909,7 +16359,9 @@
       <c r="I473" t="n">
         <v>17.6</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16943,12 +16395,12 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16982,12 +16434,12 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17021,12 +16473,12 @@
         <v>-41829771.52932917</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J476" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17060,12 +16512,12 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>18</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17099,12 +16551,12 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17138,12 +16590,12 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17177,12 +16629,12 @@
         <v>-42059301.04862916</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17216,12 +16668,12 @@
         <v>-42057965.01512916</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17255,12 +16707,12 @@
         <v>-42057965.01512916</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J482" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17294,12 +16746,12 @@
         <v>-42090720.88722917</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J483" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17333,12 +16785,12 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17372,12 +16824,12 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
         <v>17.7</v>
       </c>
-      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17411,12 +16863,12 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
         <v>17.7</v>
       </c>
-      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17450,12 +16902,12 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="n">
         <v>17.7</v>
       </c>
-      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17489,12 +16941,12 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
         <v>17.7</v>
       </c>
-      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17528,12 +16980,12 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
         <v>17.7</v>
       </c>
-      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17567,12 +17019,12 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J490" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17606,12 +17058,12 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J491" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17650,7 +17102,9 @@
       <c r="I492" t="n">
         <v>17.5</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17689,7 +17143,9 @@
       <c r="I493" t="n">
         <v>17.6</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17723,12 +17179,12 @@
         <v>-42380520.73562917</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
         <v>17.7</v>
       </c>
-      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17762,12 +17218,12 @@
         <v>-42291920.73562917</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
         <v>17.7</v>
       </c>
-      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,12 +17257,12 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J496" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17840,12 +17296,12 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>18</v>
-      </c>
-      <c r="J497" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17879,12 +17335,12 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>18</v>
-      </c>
-      <c r="J498" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17918,12 +17374,12 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>18</v>
-      </c>
-      <c r="J499" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17957,12 +17413,12 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J500" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17996,12 +17452,12 @@
         <v>-42079397.59796105</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,12 +17491,12 @@
         <v>-42079397.59796105</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J502" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18074,12 +17530,12 @@
         <v>-42079407.59796105</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18113,12 +17569,12 @@
         <v>-41917249.51726104</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J504" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18152,12 +17608,12 @@
         <v>-41917249.51726104</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>18</v>
-      </c>
-      <c r="J505" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18191,12 +17647,12 @@
         <v>-41950475.34236104</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>18</v>
-      </c>
-      <c r="J506" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18230,12 +17686,12 @@
         <v>-41887512.21216104</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J507" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18269,12 +17725,12 @@
         <v>-41886382.49946104</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>18</v>
-      </c>
-      <c r="J508" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18308,12 +17764,12 @@
         <v>-41889584.95026104</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J509" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18347,12 +17803,12 @@
         <v>-41889584.95026104</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>18</v>
-      </c>
-      <c r="J510" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18386,12 +17842,12 @@
         <v>-41889584.95026104</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>18</v>
-      </c>
-      <c r="J511" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18425,12 +17881,12 @@
         <v>-41883149.14916104</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>18</v>
-      </c>
-      <c r="J512" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18464,12 +17920,12 @@
         <v>-41883149.14916104</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J513" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18503,12 +17959,12 @@
         <v>-41931569.71616104</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J514" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18542,12 +17998,12 @@
         <v>-41931559.70366104</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>18</v>
-      </c>
-      <c r="J515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18581,12 +18037,12 @@
         <v>-41943682.13576104</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J516" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18620,12 +18076,12 @@
         <v>-41943682.13576104</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J517" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18659,12 +18115,12 @@
         <v>-41943664.13576104</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J518" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18698,12 +18154,12 @@
         <v>-41943664.13576104</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J519" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18737,12 +18193,12 @@
         <v>-41943553.49126104</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J520" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18779,7 +18235,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18813,12 +18271,12 @@
         <v>-41935075.07596104</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J522" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18855,7 +18313,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18892,7 +18352,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18929,7 +18391,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18966,7 +18430,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19003,7 +18469,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19040,7 +18508,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19074,12 +18544,12 @@
         <v>-41842228.76054365</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J529" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19113,12 +18583,12 @@
         <v>-41899890.78814365</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J530" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19152,12 +18622,12 @@
         <v>-41929625.37134365</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>18</v>
-      </c>
-      <c r="J531" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19191,12 +18661,12 @@
         <v>-41929625.37134365</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J532" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19230,12 +18700,12 @@
         <v>-41988411.95574365</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19269,12 +18739,12 @@
         <v>-41979859.01134365</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
         <v>17.7</v>
       </c>
-      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19308,12 +18778,12 @@
         <v>-42005661.16204365</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>18</v>
-      </c>
-      <c r="J535" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19347,12 +18817,12 @@
         <v>-42023648.67434365</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19386,12 +18856,12 @@
         <v>-42023547.62464365</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19425,12 +18895,12 @@
         <v>-42023547.62464365</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>18</v>
-      </c>
-      <c r="J538" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19464,12 +18934,12 @@
         <v>-42019174.96934365</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>18</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19503,12 +18973,12 @@
         <v>-41988735.65044366</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19542,12 +19012,12 @@
         <v>-41880952.65684365</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19584,7 +19054,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19621,7 +19093,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19658,7 +19132,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,7 +19171,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19732,7 +19210,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19769,7 +19249,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19803,12 +19285,12 @@
         <v>-41656984.10066105</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19845,7 +19327,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19882,7 +19366,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19919,7 +19405,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19956,7 +19444,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19993,7 +19483,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20030,7 +19522,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,19 +19558,23 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
+        <v>1.051497175141243</v>
+      </c>
+      <c r="M555" t="n">
+        <v>1.275862068965517</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -20101,15 +19599,11 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20138,15 +19632,11 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20175,15 +19665,11 @@
         <v>-41555980.64947843</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20212,15 +19698,11 @@
         <v>-41747938.04787843</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20253,11 +19735,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20290,11 +19768,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20327,11 +19801,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20364,11 +19834,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20401,11 +19867,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20438,11 +19900,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20475,11 +19933,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20512,11 +19966,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20549,11 +19999,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20586,11 +20032,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20619,15 +20061,11 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20656,15 +20094,11 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20693,15 +20127,11 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20730,15 +20160,11 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20767,15 +20193,11 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20804,15 +20226,11 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20841,15 +20259,11 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20878,15 +20292,11 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20915,15 +20325,11 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20952,15 +20358,11 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20989,15 +20391,11 @@
         <v>-41333191.60590517</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21026,15 +20424,11 @@
         <v>-41498315.62160517</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21063,15 +20457,11 @@
         <v>-41440795.79970516</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21100,15 +20490,11 @@
         <v>-41436727.89570516</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21137,15 +20523,11 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21174,15 +20556,11 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21211,15 +20589,11 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21248,15 +20622,11 @@
         <v>-41381483.30040517</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21285,15 +20655,11 @@
         <v>-41435900.01420517</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21322,15 +20688,11 @@
         <v>-41422609.58410516</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21359,15 +20721,11 @@
         <v>-41198320.33010516</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21396,15 +20754,11 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21433,15 +20787,11 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21470,15 +20820,11 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21507,15 +20853,11 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21544,15 +20886,11 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21581,15 +20919,11 @@
         <v>-41346031.12116124</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21618,15 +20952,11 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21655,15 +20985,11 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21692,15 +21018,11 @@
         <v>-41210256.62236886</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21729,15 +21051,11 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21766,15 +21084,11 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21807,11 +21121,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21844,11 +21154,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21881,11 +21187,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21914,15 +21216,11 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21951,15 +21249,11 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21988,15 +21282,11 @@
         <v>-41265196.16356885</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22025,15 +21315,11 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22062,15 +21348,11 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22099,15 +21381,11 @@
         <v>-41272963.70016886</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22140,11 +21418,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22177,11 +21451,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22214,11 +21484,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22251,11 +21517,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22284,15 +21546,11 @@
         <v>-41271170.02731939</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22325,11 +21583,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22362,11 +21616,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22399,11 +21649,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22436,11 +21682,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22473,11 +21715,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22510,11 +21748,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22547,11 +21781,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22584,11 +21814,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22621,11 +21847,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22658,11 +21880,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22695,11 +21913,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22728,15 +21942,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22765,15 +21975,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22802,15 +22008,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22839,15 +22041,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22876,15 +22074,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22913,15 +22107,11 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22954,11 +22144,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22991,11 +22177,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23028,11 +22210,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23065,11 +22243,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23102,11 +22276,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23139,11 +22309,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23176,11 +22342,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23213,11 +22375,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23250,11 +22408,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +22441,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23324,11 +22474,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23361,11 +22507,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23398,11 +22540,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23435,11 +22573,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23472,11 +22606,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23509,11 +22639,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23546,11 +22672,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23583,11 +22705,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23620,11 +22738,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23657,11 +22771,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23694,11 +22804,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23731,11 +22837,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23768,11 +22870,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23801,15 +22899,11 @@
         <v>-40977550.83516025</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23842,11 +22936,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23875,15 +22965,11 @@
         <v>-40865651.35776025</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23912,15 +22998,11 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23949,15 +23031,11 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23986,15 +23064,11 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24023,15 +23097,11 @@
         <v>-40170842.14186025</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24060,15 +23130,11 @@
         <v>-40065356.42466024</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24097,15 +23163,11 @@
         <v>-39618365.50196024</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24134,15 +23196,11 @@
         <v>-39683662.01686024</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24171,15 +23229,11 @@
         <v>-39655220.35516024</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24208,15 +23262,11 @@
         <v>-39716742.8462769</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24245,15 +23295,11 @@
         <v>-39600052.70839357</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24282,15 +23328,11 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24319,15 +23361,11 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24356,15 +23394,11 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24393,15 +23427,11 @@
         <v>-39885814.29521023</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24430,15 +23460,11 @@
         <v>-39877560.12861024</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24467,15 +23493,11 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24504,15 +23526,11 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24541,15 +23559,11 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24578,15 +23592,11 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24615,15 +23625,11 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24652,15 +23658,11 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24689,15 +23691,11 @@
         <v>-39975335.40801024</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24726,15 +23724,11 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24763,15 +23757,11 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24800,15 +23790,11 @@
         <v>-39923519.12891024</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24837,15 +23823,11 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24874,15 +23856,11 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24911,15 +23889,11 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24948,15 +23922,11 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24985,15 +23955,11 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25022,15 +23988,11 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25059,15 +24021,11 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25096,15 +24054,11 @@
         <v>-39765180.26991025</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25133,15 +24087,11 @@
         <v>-39082769.75451025</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25170,15 +24120,11 @@
         <v>-39109511.43461025</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25207,15 +24153,11 @@
         <v>-39172655.62331025</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25244,15 +24186,11 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25281,15 +24219,11 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25318,15 +24252,11 @@
         <v>-38734167.32546973</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25355,15 +24285,11 @@
         <v>-39375608.25896973</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25392,15 +24318,11 @@
         <v>-39352538.04546973</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25429,15 +24351,11 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25466,15 +24384,11 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25503,15 +24417,11 @@
         <v>-39847257.66976973</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25540,15 +24450,11 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25577,15 +24483,11 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25614,15 +24516,11 @@
         <v>-39837226.57966973</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25651,15 +24549,11 @@
         <v>-39835332.85846973</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25688,15 +24582,11 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25725,15 +24615,11 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25762,15 +24648,11 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25799,15 +24681,11 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25836,15 +24714,11 @@
         <v>-39642360.32647435</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25873,15 +24747,11 @@
         <v>-39754910.61511537</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25910,15 +24780,11 @@
         <v>-40046188.58061537</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25947,15 +24813,11 @@
         <v>-39999826.01241537</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25984,15 +24846,11 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26021,15 +24879,11 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26062,11 +24916,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26099,11 +24949,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26132,15 +24978,11 @@
         <v>-40311817.33241537</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26173,11 +25015,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26206,15 +25044,11 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26243,15 +25077,11 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26280,15 +25110,11 @@
         <v>-40218183.80041537</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26317,15 +25143,11 @@
         <v>-40254572.54131538</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26354,15 +25176,11 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26391,15 +25209,11 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26428,15 +25242,11 @@
         <v>-39915886.56940281</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26465,15 +25275,11 @@
         <v>-40633586.20650282</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26502,15 +25308,11 @@
         <v>-40547339.88580282</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26539,15 +25341,11 @@
         <v>-41238397.02550282</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26580,11 +25378,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26617,11 +25411,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26654,11 +25444,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26691,11 +25477,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26728,11 +25510,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26765,11 +25543,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26802,11 +25576,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26839,11 +25609,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26876,11 +25642,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26913,11 +25675,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +25708,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26987,11 +25741,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27024,11 +25774,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27061,11 +25807,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27098,11 +25840,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27135,11 +25873,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27172,11 +25906,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27209,11 +25939,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27246,11 +25972,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27283,11 +26005,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27320,11 +26038,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27357,11 +26071,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27394,11 +26104,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27431,11 +26137,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27468,11 +26170,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27505,11 +26203,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27542,11 +26236,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27579,11 +26269,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27616,11 +26302,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27653,11 +26335,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27690,11 +26368,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27727,11 +26401,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27764,11 +26434,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27801,11 +26467,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27838,11 +26500,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27875,11 +26533,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27912,11 +26566,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27949,11 +26599,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27986,11 +26632,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28023,11 +26665,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28060,11 +26698,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28097,11 +26731,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28134,11 +26764,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +26797,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28208,11 +26830,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28245,11 +26863,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28282,11 +26896,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28319,11 +26929,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28352,17 +26958,11 @@
         <v>-45113875.57410655</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28395,11 +26995,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28432,11 +27028,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28469,11 +27061,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28506,11 +27094,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28543,11 +27127,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28580,11 +27160,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28617,11 +27193,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28650,17 +27222,11 @@
         <v>-46059283.03501981</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28693,11 +27259,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28726,17 +27288,11 @@
         <v>-46535907.96721981</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28765,17 +27321,11 @@
         <v>-46310878.90671419</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28804,17 +27354,11 @@
         <v>-46466975.40741419</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28843,17 +27387,11 @@
         <v>-46160795.28031419</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28882,17 +27420,11 @@
         <v>-46160795.28031419</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28921,17 +27453,11 @@
         <v>-46160795.28031419</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28960,17 +27486,11 @@
         <v>-46160795.28031419</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29003,11 +27523,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29036,17 +27552,11 @@
         <v>-46177124.74559632</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29075,17 +27585,11 @@
         <v>-46177124.74559632</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29114,17 +27618,11 @@
         <v>-46177124.74559632</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29153,17 +27651,11 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29192,17 +27684,11 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29231,17 +27717,11 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29270,17 +27750,11 @@
         <v>-46337582.6586142</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29317,7 +27791,7 @@
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L804" t="n">
@@ -29348,11 +27822,9 @@
         <v>-46337561.6586142</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -29387,11 +27859,9 @@
         <v>-46132764.58051419</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -29426,11 +27896,9 @@
         <v>-46170657.34971419</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -29465,11 +27933,9 @@
         <v>-46135944.28852745</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -29504,11 +27970,9 @@
         <v>-45846102.60862745</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -29543,11 +28007,9 @@
         <v>-46356032.07092746</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -29915,11 +28377,9 @@
         <v>-46720765.80000328</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -29954,11 +28414,9 @@
         <v>-46646714.94069795</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -29993,11 +28451,9 @@
         <v>-48307725.94069795</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -30217,11 +28673,9 @@
         <v>-49270872.43809795</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -30256,11 +28710,9 @@
         <v>-49222132.77149795</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -30295,11 +28747,9 @@
         <v>-49222132.77149795</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -30334,11 +28784,9 @@
         <v>-49326345.16029795</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -30373,11 +28821,9 @@
         <v>-49328703.31599795</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -30412,11 +28858,9 @@
         <v>-48070162.07129795</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -30451,11 +28895,9 @@
         <v>-48070129.21639795</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -30490,11 +28932,9 @@
         <v>-48070129.21639795</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -30529,11 +28969,9 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -30568,11 +29006,9 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -30607,11 +29043,9 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -30646,11 +29080,9 @@
         <v>-48058241.22459795</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -30685,11 +29117,9 @@
         <v>-48149034.42979795</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -30724,11 +29154,9 @@
         <v>-48149024.42979795</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -30763,11 +29191,9 @@
         <v>-48354127.47139794</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -30802,11 +29228,9 @@
         <v>-48219497.52769794</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>17.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -30841,11 +29265,9 @@
         <v>-48185710.98939794</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30880,11 +29302,9 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30919,11 +29339,9 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30958,11 +29376,9 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -30997,11 +29413,9 @@
         <v>-48419967.31999794</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -31036,11 +29450,9 @@
         <v>-48655520.66259795</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -31075,11 +29487,9 @@
         <v>-48630053.49859795</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -31114,11 +29524,9 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -31153,11 +29561,9 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -31192,11 +29598,9 @@
         <v>-48552357.56459795</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -31231,11 +29635,9 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -31270,11 +29672,9 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -31309,11 +29709,9 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -31348,11 +29746,9 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -31387,11 +29783,9 @@
         <v>-48297871.76959796</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -32425,11 +30819,9 @@
         <v>-48363501.61814992</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -32464,11 +30856,9 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -32503,11 +30893,9 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -32542,11 +30930,9 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -32581,11 +30967,9 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -32620,11 +31004,9 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -32659,11 +31041,9 @@
         <v>-48488529.73934992</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -32698,11 +31078,9 @@
         <v>-48470114.40494992</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -32737,11 +31115,9 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -32776,11 +31152,9 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -32815,11 +31189,9 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -32854,11 +31226,9 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -32893,11 +31263,9 @@
         <v>-48594269.42714991</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -32932,11 +31300,9 @@
         <v>-48888646.09554991</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -32971,11 +31337,9 @@
         <v>-48528258.07444991</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -33049,11 +31413,9 @@
         <v>-48538636.51874992</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -33400,11 +31762,9 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -33439,11 +31799,9 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -33478,11 +31836,9 @@
         <v>-48694991.76504992</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -33517,11 +31873,9 @@
         <v>-48827183.53884992</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -36091,11 +34445,9 @@
         <v>-50263237.30969824</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -36130,11 +34482,9 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -36169,11 +34519,9 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -36208,11 +34556,9 @@
         <v>-50120772.82949824</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -36247,11 +34593,9 @@
         <v>-50141531.52979824</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -36286,11 +34630,9 @@
         <v>-50140813.02969824</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -36364,11 +34706,9 @@
         <v>-50618791.57499824</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -36403,11 +34743,9 @@
         <v>-50720906.84179825</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -36832,11 +35170,9 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
-      </c>
-      <c r="I999" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -36871,11 +35207,9 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -36910,11 +35244,9 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -36949,11 +35281,9 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -36988,11 +35318,9 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -38019,6 +36347,6 @@
       <c r="M1029" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest FNB.xlsx
+++ b/BackTest/2019-10-28 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-26208.64283213322</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2315300.975832134</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1682054.319132133</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2118738.428188816</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2971091.547488816</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3522528.944814742</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3051640.790114742</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2714790.870414742</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2954869.949557599</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5498325.605614742</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5295885.775914743</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5986418.776414743</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6156828.812814742</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5894939.220924419</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6118059.22192442</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6105563.660024419</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5509250.924714742</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5196195.074774103</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6980894.845274104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7181011.379974104</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6414102.335974104</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6072781.631674103</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5831612.802474104</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5936015.760674104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6360040.946974104</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-6527344.919751882</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-9573722.775751881</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-9080355.997051882</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-9143136.715951882</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9117680.731051883</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-10014264.37785188</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9814371.410551883</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9814371.410551883</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-10261153.70585188</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-10492400.97365188</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-10242905.62435188</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9992099.917751884</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-10794639.68145188</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-11086496.69625188</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -14125,9 +14125,11 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J416" t="n">
         <v>17.7</v>
       </c>
@@ -14164,9 +14166,11 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J417" t="n">
         <v>17.7</v>
       </c>
@@ -14203,9 +14207,11 @@
         <v>-41910745.22896007</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J418" t="n">
         <v>17.7</v>
       </c>
@@ -14283,9 +14289,11 @@
         <v>-42032045.70256007</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J420" t="n">
         <v>17.7</v>
       </c>
@@ -14322,9 +14330,11 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J421" t="n">
         <v>17.7</v>
       </c>
@@ -14361,9 +14371,11 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J422" t="n">
         <v>17.7</v>
       </c>
@@ -14400,9 +14412,11 @@
         <v>-42029753.38786007</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J423" t="n">
         <v>17.7</v>
       </c>
@@ -14439,9 +14453,11 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J424" t="n">
         <v>17.7</v>
       </c>
@@ -14478,9 +14494,11 @@
         <v>-42024232.63516007</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>18</v>
+      </c>
       <c r="J425" t="n">
         <v>17.7</v>
       </c>
@@ -15336,9 +15354,11 @@
         <v>-42141997.72313784</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J447" t="n">
         <v>17.7</v>
       </c>
@@ -15375,9 +15395,11 @@
         <v>-42171557.20773784</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J448" t="n">
         <v>17.7</v>
       </c>
@@ -15414,9 +15436,11 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J449" t="n">
         <v>17.7</v>
       </c>
@@ -15453,9 +15477,11 @@
         <v>-42171915.36743784</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J450" t="n">
         <v>17.7</v>
       </c>
@@ -15492,9 +15518,11 @@
         <v>-42275503.00683784</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J451" t="n">
         <v>17.7</v>
       </c>
@@ -15531,9 +15559,11 @@
         <v>-42161769.74563783</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>17.6</v>
+      </c>
       <c r="J452" t="n">
         <v>17.7</v>
       </c>
@@ -15570,9 +15600,11 @@
         <v>-42144790.57793783</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J453" t="n">
         <v>17.7</v>
       </c>
@@ -15609,9 +15641,11 @@
         <v>-42169829.05483783</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J454" t="n">
         <v>17.7</v>
       </c>
@@ -15648,9 +15682,11 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J455" t="n">
         <v>17.7</v>
       </c>
@@ -15687,9 +15723,11 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J456" t="n">
         <v>17.7</v>
       </c>
@@ -15726,9 +15764,11 @@
         <v>-42169779.05483783</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J457" t="n">
         <v>17.7</v>
       </c>
@@ -15765,9 +15805,11 @@
         <v>-42170095.26753783</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J458" t="n">
         <v>17.7</v>
       </c>
@@ -15804,9 +15846,11 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J459" t="n">
         <v>17.7</v>
       </c>
@@ -15843,9 +15887,11 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J460" t="n">
         <v>17.7</v>
       </c>
@@ -15882,9 +15928,11 @@
         <v>-42170085.26753783</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J461" t="n">
         <v>17.7</v>
       </c>
@@ -15921,9 +15969,11 @@
         <v>-42159783.48976006</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J462" t="n">
         <v>17.7</v>
       </c>
@@ -15960,9 +16010,11 @@
         <v>-42335726.80366006</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>18</v>
+      </c>
       <c r="J463" t="n">
         <v>17.7</v>
       </c>
@@ -15999,9 +16051,11 @@
         <v>-42336403.42566006</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J464" t="n">
         <v>17.7</v>
       </c>
@@ -16038,9 +16092,11 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J465" t="n">
         <v>17.7</v>
       </c>
@@ -16077,9 +16133,11 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J466" t="n">
         <v>17.7</v>
       </c>
@@ -16116,9 +16174,11 @@
         <v>-42336393.41366006</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J467" t="n">
         <v>17.7</v>
       </c>
@@ -16155,9 +16215,11 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J468" t="n">
         <v>17.7</v>
       </c>
@@ -16194,9 +16256,11 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J469" t="n">
         <v>17.7</v>
       </c>
@@ -16233,9 +16297,11 @@
         <v>-42606064.52186006</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J470" t="n">
         <v>17.7</v>
       </c>
@@ -16395,9 +16461,11 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J474" t="n">
         <v>17.7</v>
       </c>
@@ -16434,9 +16502,11 @@
         <v>-41829781.65442917</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J475" t="n">
         <v>17.7</v>
       </c>
@@ -16473,9 +16543,11 @@
         <v>-41829771.52932917</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J476" t="n">
         <v>17.7</v>
       </c>
@@ -16512,9 +16584,11 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>18</v>
+      </c>
       <c r="J477" t="n">
         <v>17.7</v>
       </c>
@@ -16551,9 +16625,11 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J478" t="n">
         <v>17.7</v>
       </c>
@@ -16590,9 +16666,11 @@
         <v>-41876845.13562916</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J479" t="n">
         <v>17.7</v>
       </c>
@@ -16668,9 +16746,11 @@
         <v>-42057965.01512916</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J481" t="n">
         <v>17.7</v>
       </c>
@@ -16824,9 +16904,11 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J485" t="n">
         <v>17.7</v>
       </c>
@@ -16863,9 +16945,11 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J486" t="n">
         <v>17.7</v>
       </c>
@@ -16902,9 +16986,11 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J487" t="n">
         <v>17.7</v>
       </c>
@@ -16941,9 +17027,11 @@
         <v>-42134568.06642917</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J488" t="n">
         <v>17.7</v>
       </c>
@@ -16980,9 +17068,11 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J489" t="n">
         <v>17.7</v>
       </c>
@@ -17019,9 +17109,11 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J490" t="n">
         <v>17.7</v>
       </c>
@@ -17058,9 +17150,11 @@
         <v>-42381147.71922917</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J491" t="n">
         <v>17.7</v>
       </c>
@@ -17179,9 +17273,11 @@
         <v>-42380520.73562917</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J494" t="n">
         <v>17.7</v>
       </c>
@@ -17218,9 +17314,11 @@
         <v>-42291920.73562917</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J495" t="n">
         <v>17.7</v>
       </c>
@@ -17257,9 +17355,11 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J496" t="n">
         <v>17.7</v>
       </c>
@@ -17296,9 +17396,11 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>18</v>
+      </c>
       <c r="J497" t="n">
         <v>17.7</v>
       </c>
@@ -17335,9 +17437,11 @@
         <v>-42218521.44122917</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>18</v>
+      </c>
       <c r="J498" t="n">
         <v>17.7</v>
       </c>
@@ -17374,9 +17478,11 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>18</v>
+      </c>
       <c r="J499" t="n">
         <v>17.7</v>
       </c>
@@ -17413,9 +17519,11 @@
         <v>-42172683.04352918</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>18.1</v>
+      </c>
       <c r="J500" t="n">
         <v>17.7</v>
       </c>
@@ -17452,9 +17560,11 @@
         <v>-42079397.59796105</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>18.1</v>
+      </c>
       <c r="J501" t="n">
         <v>17.7</v>
       </c>
@@ -17569,9 +17679,11 @@
         <v>-41917249.51726104</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J504" t="n">
         <v>17.7</v>
       </c>
@@ -17725,9 +17837,11 @@
         <v>-41886382.49946104</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>18</v>
+      </c>
       <c r="J508" t="n">
         <v>17.7</v>
       </c>
@@ -18739,9 +18853,11 @@
         <v>-41979859.01134365</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J534" t="n">
         <v>17.7</v>
       </c>
@@ -18856,9 +18972,11 @@
         <v>-42023547.62464365</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J537" t="n">
         <v>17.7</v>
       </c>
@@ -19558,7 +19676,7 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
@@ -19566,15 +19684,13 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L555" t="n">
-        <v>1.051497175141243</v>
-      </c>
-      <c r="M555" t="n">
-        <v>1.275862068965517</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -19599,11 +19715,17 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19632,11 +19754,17 @@
         <v>-41555965.75707843</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19665,11 +19793,17 @@
         <v>-41555980.64947843</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19698,11 +19832,17 @@
         <v>-41747938.04787843</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19734,8 +19874,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19767,8 +19913,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +19952,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19833,8 +19991,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19866,8 +20030,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19899,8 +20069,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19932,8 +20108,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19965,8 +20147,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19998,8 +20186,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20031,8 +20225,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20061,11 +20261,17 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20094,11 +20300,17 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20127,11 +20339,17 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20160,11 +20378,17 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20193,11 +20417,17 @@
         <v>-41303756.02130517</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20226,11 +20456,17 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20259,11 +20495,17 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20292,11 +20534,17 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20325,11 +20573,17 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20358,11 +20612,17 @@
         <v>-41332852.84920517</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20391,11 +20651,17 @@
         <v>-41333191.60590517</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20424,11 +20690,17 @@
         <v>-41498315.62160517</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20457,11 +20729,17 @@
         <v>-41440795.79970516</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20490,11 +20768,17 @@
         <v>-41436727.89570516</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20523,11 +20807,17 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20556,11 +20846,17 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20589,11 +20885,17 @@
         <v>-41280601.00100517</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20622,11 +20924,17 @@
         <v>-41381483.30040517</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20655,11 +20963,17 @@
         <v>-41435900.01420517</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20688,11 +21002,17 @@
         <v>-41422609.58410516</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20721,11 +21041,17 @@
         <v>-41198320.33010516</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20754,11 +21080,17 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20787,11 +21119,17 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20820,11 +21158,17 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20853,11 +21197,17 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20886,11 +21236,17 @@
         <v>-41398753.21860516</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20919,11 +21275,17 @@
         <v>-41346031.12116124</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20952,11 +21314,17 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20985,11 +21353,17 @@
         <v>-41348902.83234627</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21018,11 +21392,17 @@
         <v>-41210256.62236886</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21051,11 +21431,17 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21084,11 +21470,17 @@
         <v>-41273699.03426886</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21120,8 +21512,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21153,8 +21551,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21186,8 +21590,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21216,11 +21626,17 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21249,11 +21665,17 @@
         <v>-41265141.21686886</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21282,11 +21704,17 @@
         <v>-41265196.16356885</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21315,11 +21743,17 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21348,11 +21782,17 @@
         <v>-41271584.88936885</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21381,11 +21821,17 @@
         <v>-41272963.70016886</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21417,8 +21863,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21450,8 +21902,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21483,8 +21941,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21516,8 +21980,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21546,11 +22016,17 @@
         <v>-41271170.02731939</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21582,8 +22058,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21615,8 +22097,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21648,8 +22136,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21681,8 +22175,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21714,8 +22214,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21747,8 +22253,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21780,8 +22292,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21813,8 +22331,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21846,8 +22370,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21879,8 +22409,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21912,8 +22448,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21942,11 +22484,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21975,11 +22523,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22008,11 +22562,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22041,11 +22601,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22074,11 +22640,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22107,11 +22679,17 @@
         <v>-40934163.43976025</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22143,8 +22721,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22176,8 +22760,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22209,8 +22799,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22242,8 +22838,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22275,8 +22877,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22308,8 +22916,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22341,8 +22955,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22374,8 +22994,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22407,8 +23033,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22440,8 +23072,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22473,8 +23111,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22506,8 +23150,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22539,8 +23189,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22572,8 +23228,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22605,8 +23267,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22638,8 +23306,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22671,8 +23345,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22704,8 +23384,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22737,8 +23423,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22770,8 +23462,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22803,8 +23501,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22836,8 +23540,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22869,8 +23579,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22899,11 +23615,17 @@
         <v>-40977550.83516025</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22935,8 +23657,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22965,11 +23693,17 @@
         <v>-40865651.35776025</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22998,11 +23732,17 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23031,11 +23771,17 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23064,11 +23810,17 @@
         <v>-40114813.99766025</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23097,11 +23849,17 @@
         <v>-40170842.14186025</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23130,11 +23888,17 @@
         <v>-40065356.42466024</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23163,11 +23927,17 @@
         <v>-39618365.50196024</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23196,11 +23966,17 @@
         <v>-39683662.01686024</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23229,11 +24005,17 @@
         <v>-39655220.35516024</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23262,11 +24044,17 @@
         <v>-39716742.8462769</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23295,11 +24083,17 @@
         <v>-39600052.70839357</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23328,11 +24122,17 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23361,11 +24161,17 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23394,11 +24200,17 @@
         <v>-39677503.29379357</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23427,11 +24239,17 @@
         <v>-39885814.29521023</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23460,11 +24278,17 @@
         <v>-39877560.12861024</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23493,11 +24317,17 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23526,11 +24356,17 @@
         <v>-39930351.21191024</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23559,11 +24395,17 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23592,11 +24434,17 @@
         <v>-39966186.22991024</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23625,11 +24473,17 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23658,11 +24512,17 @@
         <v>-39963108.51791024</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23691,11 +24551,17 @@
         <v>-39975335.40801024</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23724,11 +24590,17 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23757,11 +24629,17 @@
         <v>-39806911.84421024</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23790,11 +24668,17 @@
         <v>-39923519.12891024</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23823,11 +24707,17 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23856,11 +24746,17 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23889,11 +24785,17 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23922,11 +24824,17 @@
         <v>-39912302.68921024</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23955,11 +24863,17 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23988,11 +24902,17 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24021,11 +24941,17 @@
         <v>-39750392.30121025</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24054,11 +24980,17 @@
         <v>-39765180.26991025</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +25019,17 @@
         <v>-39082769.75451025</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24120,11 +25058,17 @@
         <v>-39109511.43461025</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24153,11 +25097,17 @@
         <v>-39172655.62331025</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24186,11 +25136,17 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24219,11 +25175,17 @@
         <v>-39175971.67771024</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24252,11 +25214,17 @@
         <v>-38734167.32546973</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24285,11 +25253,17 @@
         <v>-39375608.25896973</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24318,11 +25292,17 @@
         <v>-39352538.04546973</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24351,11 +25331,17 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24384,11 +25370,17 @@
         <v>-39832416.12486973</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24417,11 +25409,17 @@
         <v>-39847257.66976973</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24450,11 +25448,17 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24483,11 +25487,17 @@
         <v>-39836689.62426973</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24516,11 +25526,17 @@
         <v>-39837226.57966973</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24549,11 +25565,17 @@
         <v>-39835332.85846973</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24582,11 +25604,17 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24615,11 +25643,17 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24648,11 +25682,17 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24681,11 +25721,17 @@
         <v>-39934665.66526973</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24714,11 +25760,17 @@
         <v>-39642360.32647435</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24747,11 +25799,17 @@
         <v>-39754910.61511537</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24780,11 +25838,17 @@
         <v>-40046188.58061537</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24813,11 +25877,17 @@
         <v>-39999826.01241537</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24846,11 +25916,17 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24879,11 +25955,17 @@
         <v>-39999836.01241537</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24915,8 +25997,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24948,8 +26036,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24978,11 +26072,17 @@
         <v>-40311817.33241537</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25014,8 +26114,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25044,11 +26150,17 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25077,11 +26189,17 @@
         <v>-40343526.37241537</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25110,11 +26228,17 @@
         <v>-40218183.80041537</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25143,11 +26267,17 @@
         <v>-40254572.54131538</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25176,11 +26306,17 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25209,11 +26345,17 @@
         <v>-39785529.15290281</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25242,11 +26384,17 @@
         <v>-39915886.56940281</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25275,11 +26423,17 @@
         <v>-40633586.20650282</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25308,11 +26462,17 @@
         <v>-40547339.88580282</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25341,11 +26501,17 @@
         <v>-41238397.02550282</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25377,8 +26543,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25410,8 +26582,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25443,8 +26621,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25476,8 +26660,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25509,8 +26699,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25542,8 +26738,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25575,8 +26777,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25608,8 +26816,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25641,8 +26855,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25674,8 +26894,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25707,8 +26933,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25740,8 +26972,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25773,8 +27011,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25806,8 +27050,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25839,8 +27089,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25872,8 +27128,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25905,8 +27167,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25938,8 +27206,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25971,8 +27245,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26004,8 +27284,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26037,8 +27323,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26070,8 +27362,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26103,8 +27401,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26136,8 +27440,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26169,8 +27479,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26202,8 +27518,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26235,8 +27557,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26268,8 +27596,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26301,8 +27635,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26334,8 +27674,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26367,8 +27713,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26400,8 +27752,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26433,8 +27791,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26466,8 +27830,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26499,8 +27869,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26532,8 +27908,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26565,8 +27947,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26598,8 +27986,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26631,8 +28025,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26664,8 +28064,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26697,8 +28103,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26730,8 +28142,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26763,8 +28181,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26796,8 +28220,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26829,8 +28259,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26862,8 +28298,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26895,8 +28337,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26928,8 +28376,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26961,8 +28415,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26994,8 +28454,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27027,8 +28493,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27060,8 +28532,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27093,8 +28571,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27126,8 +28610,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27159,8 +28649,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27192,8 +28688,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27225,8 +28727,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27258,8 +28766,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27291,8 +28805,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27324,8 +28844,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27357,8 +28883,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27390,8 +28922,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27423,8 +28961,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27456,8 +29000,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27489,8 +29039,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27522,8 +29078,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27555,8 +29117,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27588,8 +29156,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27621,8 +29195,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27654,8 +29234,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27684,11 +29270,19 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J801" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27717,11 +29311,19 @@
         <v>-46382007.18479632</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J802" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27750,11 +29352,19 @@
         <v>-46337582.6586142</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J803" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27783,15 +29393,15 @@
         <v>-46337561.6586142</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J804" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L804" t="n">
@@ -27825,7 +29435,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27859,10 +29471,14 @@
         <v>-46132764.58051419</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>18</v>
+      </c>
+      <c r="J806" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27896,10 +29512,14 @@
         <v>-46170657.34971419</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J807" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27933,10 +29553,14 @@
         <v>-46135944.28852745</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>18</v>
+      </c>
+      <c r="J808" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,10 +29594,14 @@
         <v>-45846102.60862745</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J809" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28010,7 +29638,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28047,7 +29677,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28084,7 +29716,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28121,7 +29755,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28158,7 +29794,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28195,7 +29833,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28232,7 +29872,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28269,7 +29911,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28306,7 +29950,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28343,7 +29989,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28380,7 +30028,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28417,7 +30067,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28454,7 +30106,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28491,7 +30145,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28528,7 +30184,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28565,7 +30223,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28602,7 +30262,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28639,7 +30301,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28676,7 +30340,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28713,7 +30379,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28750,7 +30418,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28787,7 +30457,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28821,10 +30493,14 @@
         <v>-49328703.31599795</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J832" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28858,10 +30534,14 @@
         <v>-48070162.07129795</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J833" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28898,7 +30578,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28935,7 +30617,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28972,7 +30656,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29006,10 +30692,14 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>18</v>
+      </c>
+      <c r="J837" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29043,10 +30733,14 @@
         <v>-48071349.76729795</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>18</v>
+      </c>
+      <c r="J838" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29080,10 +30774,14 @@
         <v>-48058241.22459795</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>18</v>
+      </c>
+      <c r="J839" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29117,10 +30815,14 @@
         <v>-48149034.42979795</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J840" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29154,10 +30856,14 @@
         <v>-48149024.42979795</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>18</v>
+      </c>
+      <c r="J841" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29191,10 +30897,14 @@
         <v>-48354127.47139794</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J842" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29228,10 +30938,14 @@
         <v>-48219497.52769794</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J843" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29265,10 +30979,14 @@
         <v>-48185710.98939794</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J844" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29302,10 +31020,14 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J845" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29339,10 +31061,14 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>18</v>
+      </c>
+      <c r="J846" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29376,10 +31102,14 @@
         <v>-48435006.98939794</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>18</v>
+      </c>
+      <c r="J847" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29413,10 +31143,14 @@
         <v>-48419967.31999794</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>18</v>
+      </c>
+      <c r="J848" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29450,10 +31184,14 @@
         <v>-48655520.66259795</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J849" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29487,10 +31225,14 @@
         <v>-48630053.49859795</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J850" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29524,10 +31266,14 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>18</v>
+      </c>
+      <c r="J851" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29561,10 +31307,14 @@
         <v>-48630033.49859795</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J852" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29598,10 +31348,14 @@
         <v>-48552357.56459795</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J853" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29635,10 +31389,14 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J854" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29672,10 +31430,14 @@
         <v>-48583219.44509795</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J855" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29709,10 +31471,14 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J856" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29746,10 +31512,14 @@
         <v>-48404971.84569795</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J857" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29783,10 +31553,14 @@
         <v>-48297871.76959796</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J858" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29823,7 +31597,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29860,7 +31636,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29897,7 +31675,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29934,7 +31714,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29971,7 +31753,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30008,7 +31792,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30045,7 +31831,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30082,7 +31870,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30119,7 +31909,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30156,7 +31948,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30193,7 +31987,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30230,7 +32026,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30267,7 +32065,9 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30304,7 +32104,9 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30341,7 +32143,9 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30378,7 +32182,9 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30415,7 +32221,9 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30452,7 +32260,9 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30489,7 +32299,9 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30526,7 +32338,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30563,7 +32377,9 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30600,7 +32416,9 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30637,7 +32455,9 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30674,7 +32494,9 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30711,7 +32533,9 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30748,7 +32572,9 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30785,7 +32611,9 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30822,7 +32650,9 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30856,10 +32686,14 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J887" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30893,10 +32727,14 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J888" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30930,10 +32768,14 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J889" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30967,10 +32809,14 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J890" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31004,10 +32850,14 @@
         <v>-48235658.32574992</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J891" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31044,7 +32894,9 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31078,10 +32930,14 @@
         <v>-48470114.40494992</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J893" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31115,10 +32971,14 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J894" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31152,10 +33012,14 @@
         <v>-48522756.37304991</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J895" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31189,10 +33053,14 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J896" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31226,10 +33094,14 @@
         <v>-48519267.43964992</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J897" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31263,10 +33135,14 @@
         <v>-48594269.42714991</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J898" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31300,10 +33176,14 @@
         <v>-48888646.09554991</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J899" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31337,10 +33217,14 @@
         <v>-48528258.07444991</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J900" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31379,7 +33263,9 @@
       <c r="I901" t="n">
         <v>18.3</v>
       </c>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31413,10 +33299,14 @@
         <v>-48538636.51874992</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J902" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31455,7 +33345,9 @@
       <c r="I903" t="n">
         <v>18.2</v>
       </c>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31494,7 +33386,9 @@
       <c r="I904" t="n">
         <v>18.2</v>
       </c>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31533,7 +33427,9 @@
       <c r="I905" t="n">
         <v>18</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31572,7 +33468,9 @@
       <c r="I906" t="n">
         <v>18.1</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31611,7 +33509,9 @@
       <c r="I907" t="n">
         <v>18.1</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31650,7 +33550,9 @@
       <c r="I908" t="n">
         <v>18.2</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31689,7 +33591,9 @@
       <c r="I909" t="n">
         <v>18.3</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31728,7 +33632,9 @@
       <c r="I910" t="n">
         <v>18.2</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31762,10 +33668,14 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J911" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31799,10 +33709,14 @@
         <v>-48695001.76504992</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J912" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31836,10 +33750,14 @@
         <v>-48694991.76504992</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J913" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31873,10 +33791,14 @@
         <v>-48827183.53884992</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J914" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31915,7 +33837,9 @@
       <c r="I915" t="n">
         <v>18.2</v>
       </c>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31954,7 +33878,9 @@
       <c r="I916" t="n">
         <v>18.3</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31993,7 +33919,9 @@
       <c r="I917" t="n">
         <v>18.1</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32032,7 +33960,9 @@
       <c r="I918" t="n">
         <v>18.1</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32071,7 +34001,9 @@
       <c r="I919" t="n">
         <v>18</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32110,7 +34042,9 @@
       <c r="I920" t="n">
         <v>18</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32149,7 +34083,9 @@
       <c r="I921" t="n">
         <v>17.9</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32188,7 +34124,9 @@
       <c r="I922" t="n">
         <v>17.9</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32227,7 +34165,9 @@
       <c r="I923" t="n">
         <v>18</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32266,7 +34206,9 @@
       <c r="I924" t="n">
         <v>18.2</v>
       </c>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32305,7 +34247,9 @@
       <c r="I925" t="n">
         <v>18</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32344,7 +34288,9 @@
       <c r="I926" t="n">
         <v>17.9</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32383,7 +34329,9 @@
       <c r="I927" t="n">
         <v>18</v>
       </c>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32422,7 +34370,9 @@
       <c r="I928" t="n">
         <v>18</v>
       </c>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32461,7 +34411,9 @@
       <c r="I929" t="n">
         <v>18</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32500,7 +34452,9 @@
       <c r="I930" t="n">
         <v>18</v>
       </c>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32539,7 +34493,9 @@
       <c r="I931" t="n">
         <v>18.1</v>
       </c>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32578,7 +34534,9 @@
       <c r="I932" t="n">
         <v>18.1</v>
       </c>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32617,7 +34575,9 @@
       <c r="I933" t="n">
         <v>18</v>
       </c>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32656,7 +34616,9 @@
       <c r="I934" t="n">
         <v>18</v>
       </c>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32695,7 +34657,9 @@
       <c r="I935" t="n">
         <v>18.1</v>
       </c>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32734,7 +34698,9 @@
       <c r="I936" t="n">
         <v>18.1</v>
       </c>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32773,7 +34739,9 @@
       <c r="I937" t="n">
         <v>18.1</v>
       </c>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32812,7 +34780,9 @@
       <c r="I938" t="n">
         <v>18</v>
       </c>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32851,7 +34821,9 @@
       <c r="I939" t="n">
         <v>18</v>
       </c>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32890,7 +34862,9 @@
       <c r="I940" t="n">
         <v>18</v>
       </c>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32929,7 +34903,9 @@
       <c r="I941" t="n">
         <v>18</v>
       </c>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32968,7 +34944,9 @@
       <c r="I942" t="n">
         <v>18</v>
       </c>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33007,7 +34985,9 @@
       <c r="I943" t="n">
         <v>17.9</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33046,7 +35026,9 @@
       <c r="I944" t="n">
         <v>18.1</v>
       </c>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33085,7 +35067,9 @@
       <c r="I945" t="n">
         <v>18.1</v>
       </c>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33124,7 +35108,9 @@
       <c r="I946" t="n">
         <v>18</v>
       </c>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33163,7 +35149,9 @@
       <c r="I947" t="n">
         <v>18</v>
       </c>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33202,7 +35190,9 @@
       <c r="I948" t="n">
         <v>18.1</v>
       </c>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33241,7 +35231,9 @@
       <c r="I949" t="n">
         <v>18</v>
       </c>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33280,7 +35272,9 @@
       <c r="I950" t="n">
         <v>18.1</v>
       </c>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33319,7 +35313,9 @@
       <c r="I951" t="n">
         <v>18.1</v>
       </c>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33358,7 +35354,9 @@
       <c r="I952" t="n">
         <v>18.2</v>
       </c>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33397,7 +35395,9 @@
       <c r="I953" t="n">
         <v>18.2</v>
       </c>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33436,7 +35436,9 @@
       <c r="I954" t="n">
         <v>18.1</v>
       </c>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33475,7 +35477,9 @@
       <c r="I955" t="n">
         <v>18.1</v>
       </c>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33514,7 +35518,9 @@
       <c r="I956" t="n">
         <v>18</v>
       </c>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33553,7 +35559,9 @@
       <c r="I957" t="n">
         <v>18</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33592,7 +35600,9 @@
       <c r="I958" t="n">
         <v>18</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33631,7 +35641,9 @@
       <c r="I959" t="n">
         <v>18</v>
       </c>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33670,7 +35682,9 @@
       <c r="I960" t="n">
         <v>17.9</v>
       </c>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33709,7 +35723,9 @@
       <c r="I961" t="n">
         <v>18</v>
       </c>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33748,7 +35764,9 @@
       <c r="I962" t="n">
         <v>18</v>
       </c>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33787,7 +35805,9 @@
       <c r="I963" t="n">
         <v>18</v>
       </c>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33826,7 +35846,9 @@
       <c r="I964" t="n">
         <v>18</v>
       </c>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33865,7 +35887,9 @@
       <c r="I965" t="n">
         <v>18.1</v>
       </c>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33904,7 +35928,9 @@
       <c r="I966" t="n">
         <v>18</v>
       </c>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33943,7 +35969,9 @@
       <c r="I967" t="n">
         <v>18.1</v>
       </c>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33982,7 +36010,9 @@
       <c r="I968" t="n">
         <v>18.1</v>
       </c>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34021,7 +36051,9 @@
       <c r="I969" t="n">
         <v>18</v>
       </c>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34060,7 +36092,9 @@
       <c r="I970" t="n">
         <v>18</v>
       </c>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34099,7 +36133,9 @@
       <c r="I971" t="n">
         <v>18.2</v>
       </c>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34138,7 +36174,9 @@
       <c r="I972" t="n">
         <v>18.2</v>
       </c>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34177,7 +36215,9 @@
       <c r="I973" t="n">
         <v>18.2</v>
       </c>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34216,7 +36256,9 @@
       <c r="I974" t="n">
         <v>18.2</v>
       </c>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34255,7 +36297,9 @@
       <c r="I975" t="n">
         <v>18.2</v>
       </c>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34294,7 +36338,9 @@
       <c r="I976" t="n">
         <v>18.1</v>
       </c>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34333,7 +36379,9 @@
       <c r="I977" t="n">
         <v>18.2</v>
       </c>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34372,7 +36420,9 @@
       <c r="I978" t="n">
         <v>18.2</v>
       </c>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34411,7 +36461,9 @@
       <c r="I979" t="n">
         <v>18.3</v>
       </c>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34445,10 +36497,14 @@
         <v>-50263237.30969824</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J980" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34482,10 +36538,14 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J981" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34519,10 +36579,14 @@
         <v>-50272336.19339824</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J982" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34556,10 +36620,14 @@
         <v>-50120772.82949824</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J983" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34593,10 +36661,14 @@
         <v>-50141531.52979824</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J984" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34630,10 +36702,14 @@
         <v>-50140813.02969824</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J985" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34672,7 +36748,9 @@
       <c r="I986" t="n">
         <v>18.3</v>
       </c>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34706,10 +36784,14 @@
         <v>-50618791.57499824</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J987" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34743,10 +36825,14 @@
         <v>-50720906.84179825</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J988" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34785,7 +36871,9 @@
       <c r="I989" t="n">
         <v>18.1</v>
       </c>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34824,7 +36912,9 @@
       <c r="I990" t="n">
         <v>18</v>
       </c>
-      <c r="J990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34863,7 +36953,9 @@
       <c r="I991" t="n">
         <v>18.2</v>
       </c>
-      <c r="J991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34902,7 +36994,9 @@
       <c r="I992" t="n">
         <v>18.2</v>
       </c>
-      <c r="J992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34941,7 +37035,9 @@
       <c r="I993" t="n">
         <v>18.2</v>
       </c>
-      <c r="J993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34980,7 +37076,9 @@
       <c r="I994" t="n">
         <v>18.2</v>
       </c>
-      <c r="J994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35019,7 +37117,9 @@
       <c r="I995" t="n">
         <v>18.2</v>
       </c>
-      <c r="J995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35058,7 +37158,9 @@
       <c r="I996" t="n">
         <v>18.3</v>
       </c>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35097,7 +37199,9 @@
       <c r="I997" t="n">
         <v>18.3</v>
       </c>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35136,7 +37240,9 @@
       <c r="I998" t="n">
         <v>18.3</v>
       </c>
-      <c r="J998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35170,10 +37276,14 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J999" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35207,10 +37317,14 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35244,10 +37358,14 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35281,10 +37399,14 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35318,10 +37440,14 @@
         <v>-50104418.81809824</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35360,7 +37486,9 @@
       <c r="I1004" t="n">
         <v>18.3</v>
       </c>
-      <c r="J1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35399,7 +37527,9 @@
       <c r="I1005" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35438,7 +37568,9 @@
       <c r="I1006" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35477,7 +37609,9 @@
       <c r="I1007" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35516,7 +37650,9 @@
       <c r="I1008" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35555,7 +37691,9 @@
       <c r="I1009" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35594,7 +37732,9 @@
       <c r="I1010" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35633,7 +37773,9 @@
       <c r="I1011" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35672,7 +37814,9 @@
       <c r="I1012" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35711,7 +37855,9 @@
       <c r="I1013" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35750,7 +37896,9 @@
       <c r="I1014" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35789,7 +37937,9 @@
       <c r="I1015" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35828,7 +37978,9 @@
       <c r="I1016" t="n">
         <v>18</v>
       </c>
-      <c r="J1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35867,7 +38019,9 @@
       <c r="I1017" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35906,7 +38060,9 @@
       <c r="I1018" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35945,7 +38101,9 @@
       <c r="I1019" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35984,7 +38142,9 @@
       <c r="I1020" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36023,7 +38183,9 @@
       <c r="I1021" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36062,7 +38224,9 @@
       <c r="I1022" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36101,7 +38265,9 @@
       <c r="I1023" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36140,7 +38306,9 @@
       <c r="I1024" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36179,7 +38347,9 @@
       <c r="I1025" t="n">
         <v>18</v>
       </c>
-      <c r="J1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36218,7 +38388,9 @@
       <c r="I1026" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36257,7 +38429,9 @@
       <c r="I1027" t="n">
         <v>18.1</v>
       </c>
-      <c r="J1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36296,7 +38470,9 @@
       <c r="I1028" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36335,7 +38511,9 @@
       <c r="I1029" t="n">
         <v>18.2</v>
       </c>
-      <c r="J1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>17.7</v>
+      </c>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
